--- a/AutryPubDesc/AutryPubDesc.xlsx
+++ b/AutryPubDesc/AutryPubDesc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="420" windowWidth="20760" windowHeight="9135"/>
+    <workbookView xWindow="450" yWindow="465" windowWidth="20760" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
   </si>
   <si>
     <t>Painting, &lt;em&gt;Once Upon a Time in the West&lt;/em&gt;, circa 1968.
-The painting is the original art created for Paramount Picture's Swedish movie poster "Harmonica En Hamnare."</t>
+This painting is the original artwork created for Paramount Picture's Swedish movie poster "Harmonica En Hamnare."</t>
   </si>
   <si>
     <t>2008.9.1</t>
@@ -854,7 +854,7 @@
     <t>2008.48.1</t>
   </si>
   <si>
-    <t>Painting by Franz Arthur Bischoff, &lt;em&gt;The Docks at San Pedro&lt;/em&gt;, 1864-1929.</t>
+    <t>Painting by Franz Arthur Bischoff, &lt;em&gt;The Docks at San Pedro&lt;/em&gt;, probably circa 1900.</t>
   </si>
   <si>
     <t>2008.59.1</t>
@@ -941,7 +941,7 @@
     <t>2012.37.2</t>
   </si>
   <si>
-    <t>Painting by Eanger Irving Course, &lt;em&gt;The Tom-Tom Maker&lt;/em&gt;. Signed bottom left corner.</t>
+    <t>Painting by Eanger Irving Couse, &lt;em&gt;The Tom-Tom Maker&lt;/em&gt;. Signed bottom left corner.</t>
   </si>
   <si>
     <t>2012.37.3</t>
@@ -1053,8 +1053,8 @@
   </si>
   <si>
     <t>Sculpture by Joe Beeler, &lt;em&gt;Prairie Madonna&lt;/em&gt;.  
-Inscribed at back: &lt;em&gt;JOE BEELER CA&lt;/em&gt;
-Stamped at back: &lt;em&gt;BRONZE/SMITH 18/35.&lt;/em&gt;</t>
+Inscribed back: &lt;em&gt;JOE BEELER CA&lt;/em&gt;
+Stamped back: &lt;em&gt;BRONZE/SMITH 18/35.&lt;/em&gt;</t>
   </si>
   <si>
     <t>2012.37.24</t>
@@ -1188,7 +1188,7 @@
     <t>2014.34.1</t>
   </si>
   <si>
-    <t>Painting by Billy Schenck, &lt;em&gt;A River Runs Through It&lt;/em&gt;, 2011.</t>
+    <t>Painting by Bill Schenck, &lt;em&gt;A River Runs Through It&lt;/em&gt;, 2011.</t>
   </si>
   <si>
     <t>2015.5.1</t>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/AutryPubDesc/AutryPubDesc.xlsx
+++ b/AutryPubDesc/AutryPubDesc.xlsx
@@ -1,45 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="450" yWindow="465" windowWidth="20760" windowHeight="9645"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>ObjectID</t>
+  </si>
+  <si>
+    <t>PublicDescription</t>
+  </si>
   <si>
     <t>81.G.2</t>
   </si>
   <si>
-    <t>Painting by Thomas Buchanan Read &lt;em&gt;Portrait of Mrs. Jessie Benton Fremont, Wife of Gen. John Fremont&lt;/em&gt;, 1856.</t>
+    <t>Painting by Thomas Buchanan Read, &lt;em&gt;Portrait of Mrs. Jessie Benton Fremont, Wife of Gen. John Fremont&lt;/em&gt;, 1856.</t>
   </si>
   <si>
     <t>87.46.1</t>
   </si>
   <si>
     <t>Painting by Frederic Remington, &lt;em&gt;An Incident in the Opening up of a Cattle Country&lt;/em&gt;, 1887. Signed and dated in bottom right corner.
-Published in &lt;em&gt;Century Illustrated Magazine&lt;/em&gt;, 1888 and in &lt;em&gt;Ranch Life and the Hunting Trail&lt;/em&gt; by Theodore Roosevelt, 1888.  This painting was one of five works the artist sent to the 1889 Paris Universal Exposition. The basic format on which later works such as &lt;em&gt;The Last Lull in the Fight&lt;/em&gt; and &lt;em&gt;Caught in the Circle&lt;/em&gt;&lt;/em&gt; would be based.</t>
+Published in &lt;em&gt;Century Illustrated Magazine&lt;/em&gt;, 1888 and in &lt;em&gt;Ranch Life and the Hunting Trail&lt;/em&gt; by Theodore Roosevelt, 1888.  This painting was one of five works the artist sent to the 1889 Paris Universal Exposition. The basic format on which later works such as &lt;em&gt;The Last Lull in the Fight&lt;/em&gt; and &lt;em&gt;Caught in the Circle&lt;/em&gt; would be based.</t>
   </si>
   <si>
     <t>87.87.1</t>
   </si>
   <si>
-    <t>Watercolor by  A. C. Redwood, &lt;em&gt;Hanging of Netherington and Brace, 1856&lt;/em&gt;, dated 1891.</t>
+    <t>Watercolor by A.C. Redwood, &lt;em&gt;Hanging of Netherington and Brace, 1856&lt;/em&gt;, 1891.</t>
   </si>
   <si>
     <t>87.87.7</t>
   </si>
   <si>
     <t>Watercolor by Vincent Colyer, &lt;em&gt;Chinamen's Quarters on the Central Pacific Rail Road&lt;/em&gt;, October 1870. 
-Written in pen at edge: &lt;em&gt;Chinamen's qtrs on the Central pacific R.R./1st station beyond West. Salt Lake.  Oct. 1870. VC.&lt;/em&gt;</t>
+Written in pen at edge: &lt;em&gt;Chinamen's qtrs on the Central pacific R.R./1st station beyond West. Salt Lake. Oct. 1870. VC.&lt;/em&gt;</t>
   </si>
   <si>
     <t>88.27.7</t>
@@ -200,7 +200,7 @@
     <t>90.139.1</t>
   </si>
   <si>
-    <t>Painting by Fritz Scholder, &lt;em&gt;Matinee Cowboy, Posing&lt;/em&gt;, 1978.  
+    <t>Painting by Fritz Scholder (Luiseño), &lt;em&gt;Matinee Cowboy, Posing&lt;/em&gt;, 1978.  
 Signed lower right.</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
   </si>
   <si>
     <t>Bulto of San Francisco by Arroyo Hondo Carver, carved and painted wood, Arroyo Hondo, New Mexico, circa 1830-1845. 
-The prominence of saints in Hispanic art stems from the devotional practices of Roman Catholicism, which were transmitted to colonial Mexico with the Spanish conquest. In the remote outpost of Northern New Mexico, carved and painted figures of saints were called upon for help with rain, harvests, and other situations. 
+The prominence of saints in Hispanic art stems from the devotional practices of Roman Catholicism, which were transmitted to colonial Mexico with the Spanish conquest. In the remote outpost of northern New Mexico, carved and painted figures of saints were called upon for help with rain, harvests, and other situations. 
 The political isolation and increasing wealth of northern New Mexico made for a unique and flourishing tradition of devotional art. This piece is attributed to the Arroyo Hondo santero (a maker of santos) who worked in the rural communities around Taos. Characterized by a simple elegance, his work has been described as “the most purely spiritualized sculpture of nineteenth-century New Mexico.” The piece also reflects the prominence of the Franciscan Order, which advocated the ideals of piety and charity.</t>
   </si>
   <si>
@@ -254,8 +254,8 @@
     <t>90.242.1</t>
   </si>
   <si>
-    <t>Bulto by Luis Tapia, &lt;em&gt;entitled Tribute to Maria Benitez&lt;/em&gt; by Luis Tapia, 1990.
-Bultos (saints carved in the round) have been a prominent art form in Northern New Mexico since the eighteenth century, when geographic isolation prompted the faithful to create devotional figures for personal use. Tapia’s portrait of the legendary flamenco dancer Maria Benitez represents a contemporary manifestation of this historic art form while evoking the graceful movement of the flamenco dance, also an important ritual in Hispanic society.</t>
+    <t>Bulto by Luis Tapia, &lt;em&gt;Tribute to Maria Benitez&lt;/em&gt;, by Luis Tapia, 1990.
+Bultos (saints carved in the round) have been a prominent art form in northern New Mexico since the eighteenth century, when geographic isolation prompted the faithful to create devotional figures for personal use. Tapia’s portrait of the legendary flamenco dancer Maria Benitez represents a contemporary manifestation of this historic art form while evoking the graceful movement of the flamenco dance, also an important ritual in Hispanic society.</t>
   </si>
   <si>
     <t>90.243.1</t>
@@ -268,14 +268,14 @@
     <t>91.41.1</t>
   </si>
   <si>
-    <t>Chair, hand carved  in shape of buffalo head, real horns, mahogany and rosewood, Scotland, 1842.  This is the bigger of two similar, but not identical chairs. 
+    <t>Chair, hand carved,  in shape of buffalo head, real horns, mahogany and rosewood, Scotland, 1842.  This is the bigger of two similar, but not identical chairs. 
 Sir William Drummond Stewart, the younger son of a Scottish lord, came to America in 1832. When Sir William returned to Scotland in 1839 from a tour of the American West, he brought back a few souvenirs, including exotic plants, several bison, three Indians, and his M&amp;eacute;tis guide Antoine Clement.  He designed these remarkable chairs for the central hall of his Scottish estate, Murthly castle.</t>
   </si>
   <si>
     <t>91.41.2</t>
   </si>
   <si>
-    <t>Chair, hand carved  in shape of buffalo head, real horns, mahogany and rosewood, Scotland, 1842.  This is smaller of two similar, but not identical chairs.
+    <t>Chair, hand carved, in shape of buffalo head, real horns, mahogany and rosewood, Scotland, 1842.  This is smaller of two similar, but not identical chairs.
 Sir William Drummond Stewart, the younger son of a Scottish lord, came to America in 1832.  When Sir William returned to Scotland in 1839 from a tour of the American West, he brought back a few souvenirs, including exotic plants, several bison, three Indians, and his Métis guide Antoine Clement.  He designed these remarkable chairs for the central hall of his Scottish estate, Murthly castle.</t>
   </si>
   <si>
@@ -297,7 +297,7 @@
   </si>
   <si>
     <t>Altar screen made by Luis Tapia, wood with tin and plastic decorations, painted with acrylic paints, 1990. 
-Inscribed at base: &lt;em&gt;Dedisco este altar a la memoria de mi Amigo Chris Corriz 1974/1990" and "Este altar fue hecho por la mano de Luis T 1990.&lt;/em&gt;</t>
+Inscribed at base: &lt;em&gt;Dedisco este altar a la memoria de mi Amigo Chris Corriz 1974/1990&lt;/em&gt; and &lt;em&gt;Este altar fue hecho por la mano de Luis T 1990&lt;/em&gt;.</t>
   </si>
   <si>
     <t>91.183.1</t>
@@ -318,7 +318,7 @@
   </si>
   <si>
     <t>Sculpture by Frederic Remington, &lt;em&gt;The Broncho Buster&lt;/em&gt;, cast number 26, 1895.  
-&lt;em&gt;The Broncho Buster&lt;/em&gt;, the first and best-known sculpture by Frederic Remington,  is recognized as an icon of American art. Based on the composition of an 1882 illustration for &lt;em&gt;Harper's Weekly&lt;/em&gt; titled "A Pitching Bronco," the preliminary clay sculpture was completed in 1895 and copyrighted in October of that year. 
+&lt;em&gt;The Broncho Buster&lt;/em&gt;, the first and best-known sculpture by Frederic Remington, is recognized as an icon of American art. Based on the composition of an 1882 illustration for &lt;em&gt;Harper's Weekly&lt;/em&gt; titled "A Pitching Bronco," the preliminary clay sculpture was completed in 1895 and copyrighted in October of that year. 
 The work, with horse and rider twisting upward through space in one fluid, serpentine movement, represents a break from the static formula used in most equine sculpture of Remington's day. An acknowledged metaphor for the taming of the West, the subject of a cowboy breaking an unruly horse was by far his most popular, suggested in the more than three hundred casts created during the artist's lifetime.</t>
   </si>
   <si>
@@ -429,7 +429,7 @@
     <t>93.177.5</t>
   </si>
   <si>
-    <t>Etching print by Carl Christian Anton Christensen, &lt;em&gt;The Angel Moroni Delivering the Plate of the Book of Mormon to Joseph Smith jun.&lt;/em&gt;, September 22&lt;sub&gt;nd&lt;/sub&gt;, 1827.</t>
+    <t>Etching print by Carl Christian Anton Christensen, &lt;em&gt;The Angel Moroni Delivering the Plate of the Book of Mormon to Joseph Smith&lt;/em&gt;, September 22&lt;sub&gt;nd&lt;/sub&gt;, 1827.</t>
   </si>
   <si>
     <t>93.187.1</t>
@@ -485,7 +485,7 @@
     <t>97.88.1</t>
   </si>
   <si>
-    <t>Painting by Erneste E. Narjot, &lt;em&gt;Miners:  A Moment at Rest (Gold Rush Camp)&lt;/em&gt;, 1882.</t>
+    <t>Painting by Erneste E. Narjot, &lt;em&gt;Miners: A Moment at Rest (Gold Rush Camp)&lt;/em&gt;, 1882.</t>
   </si>
   <si>
     <t>98.56.1</t>
@@ -499,7 +499,7 @@
   <si>
     <t>Painting by August Schoefft, &lt;em&gt;Six Kickapoo Indians, Chief and Family&lt;/em&gt;, circa 1865. 
 This painting memorializes an 1865 delegation of Kickapoo petitioning Emperor Maximilian for land grants in Mexico. The artist omitted from the painting two members of Papequah’s delegation who were African American moscagos, or escaped slaves.
-Originally from southern Wisconsin, the Kickapoo had first moved to Illinois and later sided with the pan-Indian resistance under Tecumseh.  An 1819 treaty moved them to a reservation in Missouri. They resisted again in 1832 during the Black Hawk War and when defeated were moved to a reservation in Kansas. Bands left for Texas and Coahuila, Mexico in the 1850s.</t>
+Originally from southern Wisconsin, the Kickapoo had first moved to Illinois and later sided with the pan-Indian resistance under Tecumseh. An 1819 treaty moved them to a reservation in Missouri. They resisted again in 1832 during the Black Hawk War and when defeated were moved to a reservation in Kansas. Bands left for Texas and Coahuila, Mexico in the 1850s.</t>
   </si>
   <si>
     <t>99.6.1</t>
@@ -507,7 +507,7 @@
   <si>
     <t>California-style saddle, center-fire rigged, with mochila and anquerita, circa 1855.
 Saddles were introduced to North America by the Spanish in the sixteenth century and soon became an indispensable tool of Western life. Centerfire rigging refers to the cinch that is located halfway between the cantle (the projecting piece at the back) and the fork (the piece in front where the parts of the saddle are joined). Although rarely seen on Western saddles today, this type was popular during the 1800s. 
-Saddles were also an expensive commodity, and finely decorated examples spoke to the owner’s prestige. The large, square skirt on this saddle &lt;em&gt;mochila&lt;/em&gt;), derived from Spanish styles, is covered in an elaborate design of vaqueros roping a bear, by Charles Christian Nahl.</t>
+Saddles were also an expensive commodity, and finely decorated examples spoke to the owner’s prestige. The large, square skirt on this saddle &lt;em&gt;mochila&lt;/em&gt;, derived from Spanish styles, is covered in an elaborate design of vaqueros roping a bear, by Charles Christian Nahl.</t>
   </si>
   <si>
     <t>151.G.1</t>
@@ -547,7 +547,7 @@
   </si>
   <si>
     <t>Sioux possible bag, a pair, beaded buckskin, beaded buckskin, 1920s.
-Some Native tribes called this bag by a name which in translation means &lt;em&gt;bag-for-every-possible-thing&lt;/em&gt;. The European trappers shortened the term to &lt;em&gt;possible sacks&lt;/em&gt;, hence the name "possible bags"</t>
+Some Native tribes called this bag by a name which in translation means &lt;em&gt;bag-for-every-possible-thing&lt;/em&gt;. The European trappers shortened the term to &lt;em&gt;possible sacks&lt;/em&gt;, hence the name "possible bags".</t>
   </si>
   <si>
     <t>491.G.2137</t>
@@ -578,13 +578,6 @@
 Wider-than-long banded blankets of this type are rare and are documented from Southwest archaeological sites dating to at least 1750. While the shape is derived from the Pueblo manta-style garment, the pattern is believed to be one of the oldest in the Navajo design repertoire and probably predates 1750, although no earlier examples are documented. The Navajo term &lt;em&gt;hanolchadi&lt;/em&gt;, or carded wool, was recorded in 1910 by Father Bernard Haile to connote the chief-style blanket, which was commercially sold under this term by trader Juan Lorenzo Hubbell. The attribution of "chief" is a misnomer and has nothing to do with Navajo social structure. The blankets were thus named because the style was prized by Plains Indian leaders, or chiefs, who historically acquired them for their wives and daughters as status symbols.</t>
   </si>
   <si>
-    <t>535.G.741</t>
-  </si>
-  <si>
-    <t>Navajo (Dine) first-phase chief-style blanket (beeldlei or hanolchadi), 1800-1850.
-The earliest known example of a first-phase chief-style blanket, similar to the one here, was woven from churro wool in brown and white, with a single strand of indigo blue.  It dates to 1750 and was found by archaeologist and Southwest Museum curator Charles A. Amsden, buried in a cave cyst with a mummified body.  With the burial were buffalo and deer skins and a Pueblo woman's manta-dress with a diamond twill float weave in indigo blue.  Chief-style blankets were important in trade and social expressions and were highly prized by Plains Indians, who often gave as many as ten buffalo robes for a good blanket.</t>
-  </si>
-  <si>
     <t>609.G.717</t>
   </si>
   <si>
@@ -610,8 +603,8 @@
   </si>
   <si>
     <t>Haida house post, one of a pair, carved and painted wood, Prince of Wales Island, Alaska, circa 1860.
-This pair of house post were originally in the house of a Haida chief on Prince of Wales Island in southeastern Alaska. They were removed in 1906 and brought to Los Angeles as part of an “Indian Village” exhibit in present-day Lincoln Park. 
-House posts are a variety of totem pole, an elaborately carved, vertical sculpture consisting of symbolic representations of animals and spirit beings. House posts speak of family legends or lineage and include the crests of the owner and his wife's families. In the past, as a family grew in stature, their house posts grew in size. Typically made of cedar, house posts (like all totem poles) decay in the damp climate of the Northwest; as a result, few examples dating before 1905 exist.</t>
+This pair of house posts was originally in the house of a Haida chief on Prince of Wales Island in southeastern Alaska. They were removed in 1906 and brought to Los Angeles as part of an “Indian Village” exhibit in present-day Lincoln Park. 
+House posts are a type of totem pole, an elaborately carved, vertical sculpture consisting of symbolic representations of animals and spirit beings. House posts speak of family legends or lineage and include the crests of the owner and his wife's families. In the past, as a family grew in stature, their house posts grew in size. Typically made of cedar, house posts (like all totem poles) decay in the damp climate of the Northwest; as a result, few examples dating before 1905 exist.</t>
   </si>
   <si>
     <t>757.G.2</t>
@@ -640,7 +633,7 @@
     <t>2001.60.1</t>
   </si>
   <si>
-    <t>Lithograph print from original 1835 oil painting by Charles Bird King &lt;em&gt;Major Ridge / A Cherokee Chief&lt;/em&gt;, Philadelphia, Pennsylvania, 1838. Print is from a portfolio of lithographs printed and colored at J. T. Bowen’s Lithographic Establishment and published by F. W. Greenough, Philadelphia, Pennsylvania. Lithograph portrait was originally published in Thomas McKenney and James Hall &lt;em&gt;History of the Indian Tribes of North America&lt;/em&gt;, 1837-1844.</t>
+    <t>Lithograph print from original 1835 oil painting by Charles Bird King, &lt;em&gt;Major Ridge / A Cherokee Chief&lt;/em&gt;, Philadelphia, Pennsylvania, 1838. Print is from a portfolio of lithographs printed and colored at J. T. Bowen’s Lithographic Establishment and published by F. W. Greenough, Philadelphia, Pennsylvania. Lithograph portrait was originally published in Thomas McKenney and James Hall, &lt;em&gt;History of the Indian Tribes of North America&lt;/em&gt;, 1837-1844.</t>
   </si>
   <si>
     <t>2002.3.1</t>
@@ -692,9 +685,9 @@
     <t>2004.25.1</t>
   </si>
   <si>
-    <t>Sculpture by Luis Tapia, &lt;em&gt;Spanish Colonial Carreta&lt;/em&gt;, 1994.
+    <t>Sculpture by Luis Tapia, &lt;em&gt;Mi Carrito&lt;/em&gt;, 1994.
  Made in the style and material typical of New Mexican carvings of saints and other Roman Catholic holy figures, commonly called &lt;em&gt;bultos&lt;/em&gt;.
-In Hispanic and Chicano culture, customized cars called "lowriders" have special meaning. Designed to cruise low and slow, lowriders sport spectacular paint jobs and handcrafted interiors. Luis Tapia’s &lt;em&gt;Spanish Colonial Carreta&lt;/em&gt; exudes the blend of popular and religious imagery that is at the heart of contemporary Hispanic art, as well as the individualized nature of both lowriders and &lt;em&gt;santos&lt;/em&gt; as art forms. Emblazoned on the grill and steering wheel is a sacred heart, a symbol of the physical heart of Christ and his love, compassion, and suffering. Other symbols include the priest's chairs for bucket seats and the vigas, or traditional beams used in adobe architecture, for bumpers.</t>
+In Hispanic and Chicano culture, customized cars called "lowriders" have special meaning. Designed to cruise low and slow, lowriders sport spectacular paint jobs and handcrafted interiors. Luis Tapia’s &lt;em&gt;Mi Carrito&lt;/em&gt; exudes the blend of popular and religious imagery that is at the heart of contemporary Hispanic art, as well as the individualized nature of both lowriders and &lt;em&gt;santos&lt;/em&gt; as art forms. Emblazoned on the grill and steering wheel is a sacred heart, a symbol of the physical heart of Christ and his love, compassion, and suffering. Other symbols include the priest's chairs for bucket seats and the vigas, or traditional beams used in adobe architecture, for bumpers.</t>
   </si>
   <si>
     <t>2004.89.1</t>
@@ -739,13 +732,13 @@
     <t>2006.21.1</t>
   </si>
   <si>
-    <t>Lithograph print engraved by Edward C. Biddle from original oil painting by Charles Bird King &lt;em&gt;John Ross /  A Cherokee Chief&lt;/em&gt;, published in Thomas McKenney and James Hall &lt;em&gt;History of the Indian Tribes of North America&lt;/em&gt;, Plate 116, Philadelphia, Pennsylvania, 1943.</t>
+    <t>Lithograph print engraved by Edward C. Biddle from original oil painting by Charles Bird King, &lt;em&gt;John Ross /  A Cherokee Chief&lt;/em&gt;, published in Thomas McKenney and James Hall, &lt;em&gt;History of the Indian Tribes of North America&lt;/em&gt;, Plate 116, Philadelphia, Pennsylvania, 1943.</t>
   </si>
   <si>
     <t>2006.22.1</t>
   </si>
   <si>
-    <t>Photograph by Rondal Partridge, &lt;em&gt;Pave It and Paint it Green (National Parking)&lt;/em&gt;, 1965.</t>
+    <t>Photograph by Rondal Partridge, &lt;em&gt;Pave It and Paint It Green (National Parking)&lt;/em&gt;, 1965.</t>
   </si>
   <si>
     <t>2006.36.1</t>
@@ -795,7 +788,7 @@
   </si>
   <si>
     <t>Painting by Oscar Edmund Berninghaus, &lt;em&gt;Valley of the Sun&lt;/em&gt;, 1941. Framed and signed.  
-On back, inscribed on card at top left corner: &lt;em&gt;"Valley of the Sun" [movie] on location  / Eagle Nest, N.M. / O. E. Berningaus - Taos, N.M.&lt;/em&gt;</t>
+On back, inscribed on card at top left corner: &lt;em&gt;"Valley of the Sun" (movie) on location  / Eagle Nest, N.M. / O. E. Berningaus - Taos, N.M.&lt;/em&gt;</t>
   </si>
   <si>
     <t>2006.89.1</t>
@@ -866,14 +859,14 @@
     <t>2009.8.1</t>
   </si>
   <si>
-    <t>Sculpture by Richard V. Greeves, &lt;em&gt;Crazy Horse&lt;/em&gt;, 1997. Signed and dated. Carved around the base: &lt;em&gt;Killed 1877 Defending His Country&lt;/em&gt;, &lt;em&gt;American Hero&lt;em&gt;, and &lt;em&gt;Crazy Horse&lt;/em&gt;.</t>
+    <t>Sculpture by Richard V. Greeves, &lt;em&gt;Crazy Horse&lt;/em&gt;, 1997. Signed and dated. Carved around the base: &lt;em&gt;Killed 1877 Defending His Country&lt;/em&gt;, &lt;em&gt;American Hero&lt;/em&gt;, and &lt;em&gt;Crazy Horse&lt;/em&gt;.</t>
   </si>
   <si>
     <t>2009.77.1</t>
   </si>
   <si>
     <t>Sculpture by Deborah Butterfield, &lt;em&gt;Red Branch&lt;/em&gt;, 2007. 
-Butterfield constructs her sculptures from found pieces of wood and  this bronze is made to resemble tree branches twisted, intertwined and welded together in the shape of a horse. The sculpture was first created from pieces of manzanita wood and then photographed before being disassembled and sent to the foundry where the pieces are cast in bronze and soldered back together. The bronze has been painted a deep red color to evoke the natural color of the wood.</t>
+Butterfield constructs her sculptures from found pieces of wood and this bronze is made to resemble tree branches twisted, intertwined and welded together in the shape of a horse. The sculpture was first created from pieces of manzanita wood and then photographed before being disassembled and sent to the foundry where the pieces are cast in bronze and soldered back together. The bronze has been painted a deep red color to evoke the natural color of the wood.</t>
   </si>
   <si>
     <t>2010.4.1</t>
@@ -897,7 +890,7 @@
     <t>2011.4.3</t>
   </si>
   <si>
-    <t>Print by Fritz Scholder, &lt;em&gt;Untitled&lt;/em&gt;.</t>
+    <t>Print by Fritz Scholder (Luiseño).</t>
   </si>
   <si>
     <t>2011.45.1</t>
@@ -960,7 +953,7 @@
     <t>2012.37.5</t>
   </si>
   <si>
-    <t>Sculpture by Herb Mignery, &lt;em&gt;Silent Leather&lt;/em&gt;, 1994. Signed and dated bottom of stand</t>
+    <t>Sculpture by Herb Mignery, &lt;em&gt;Silent Leather&lt;/em&gt;, 1994. Signed and dated bottom of stand.</t>
   </si>
   <si>
     <t>2012.37.6</t>
@@ -979,7 +972,7 @@
   </si>
   <si>
     <t>Painting by Harry Jackson, &lt;em&gt;Sacagawea II&lt;/em&gt;, 1980. Signed and dated back of pedestal.
-Inscription on plaque attached to base:&lt;em&gt;SACAGAWEA II/HARRY JACKSON&lt;/em&gt;</t>
+Inscription on plaque attached to base: &lt;em&gt;SACAGAWEA II/HARRY JACKSON&lt;/em&gt;</t>
   </si>
   <si>
     <t>2012.37.10</t>
@@ -1000,7 +993,7 @@
     <t>2012.37.13</t>
   </si>
   <si>
-    <t>Lithograph print by George Catlin &lt;em&gt;Ball-Play Dance&lt;/em&gt;, 1844.
+    <t>Lithograph print by George Catlin, &lt;em&gt;Ball-Play Dance&lt;/em&gt;, 1844.
 Inscription on bottom left: &lt;em&gt; Catlin del.-McGahey, Lith.&lt;/em&gt;
 Inscription on bottom center: &lt;em&gt;No 22 Ball Play Dance (from Catlin's N.A.Indian Collection&lt;/em&gt;.
 Inscription on bottom right:&lt;em&gt;Day &amp; Hagh Lithrs to the Queen&lt;/em&gt;.</t>
@@ -1067,7 +1060,7 @@
     <t>2012.37.25</t>
   </si>
   <si>
-    <t>Sculpture by Frederic Remington, &lt;em&gt;Rattlesnake&gt;, 1904. Signed on pedestal.
+    <t>Sculpture by Frederic Remington, &lt;em&gt;Rattlesnake&lt;/em&gt;, 1904. Signed on pedestal.
 The sculpture epitomizes the sense of action, drama, and danger that had made Remington famous by 1905, when he first cast this sculpture of a horse and rider surprised by a rattlesnake in their path. Three years later he reworked the composition, extending the cowboy’s right arm as and titling his upper body forward as you see in this version, creating a more violent sense of movement.</t>
   </si>
   <si>
@@ -1094,7 +1087,7 @@
     <t>2012.37.33</t>
   </si>
   <si>
-    <t>Lithograph print by Fritz Scholder, &lt;em&gt;Sioux Chief&lt;/em&gt;, 1979. Signed bottom left corner.</t>
+    <t>Lithograph print by Fritz Scholder (Luiseño), &lt;em&gt;Sioux Chief&lt;/em&gt;, 1979. Signed bottom left corner.</t>
   </si>
   <si>
     <t>2012.37.34</t>
@@ -1133,7 +1126,7 @@
   <si>
     <t>Sculpture by Herb Mignery, &lt;em&gt;Silent Signal&lt;/em&gt;, 1997. Signed and dated on pedestal.
 Raised on a Nebraska cattle ranch, Mignery channeled his heritage with his childhood love of drawing into a successful career as a sculptor. A member of the Cowboy Artists of America (a group devoted to celebrating the traditional West), Mignery’s sculpture is based upon the close relationship between a cowboy and his horse, a duo made famous by Frederic Remington over one hundred years ago. 
-Inscribed on plaque: &lt;em&gt;SILENT SIGNAL / HERB MIGNERY CA&lt;/em&gt;</t>
+Inscribed on plaque: &lt;em&gt;SILENT SIGNAL / HERB MIGNERY CA&lt;/em&gt;.</t>
   </si>
   <si>
     <t>2012.37.45</t>
@@ -1222,6 +1215,12 @@
   </si>
   <si>
     <t>Monotype print by Rick Bartow (Wiyot, Yurok), &lt;em&gt;The Dancer&lt;/em&gt;, 2006.</t>
+  </si>
+  <si>
+    <t>2016.10.2</t>
+  </si>
+  <si>
+    <t>Painting by Harry Fonseca, &lt;em&gt;Silence of Dusk, They Begin to Shed Their Skins&lt;/em&gt;, 1995.</t>
   </si>
   <si>
     <t>3023.G.49</t>
@@ -1242,55 +1241,78 @@
     <t>4088.G.1</t>
   </si>
   <si>
-    <t>Print by Fritz Scholder, &lt;em&gt;Fancy Dancer in Roma&lt;/em&gt;, 1978.</t>
+    <t>Print by Fritz Scholder (Luiseño), &lt;em&gt;Fancy Dancer in Roma&lt;/em&gt;, 1978.</t>
   </si>
   <si>
     <t>4088.G.2</t>
   </si>
   <si>
-    <t>Etching print by Fritz Scholder, &lt;em&gt;Hollywood Cowboy in Roma&lt;/em&gt;, 1978.</t>
+    <t>Etching print by Fritz Scholder (Luiseño), &lt;em&gt;Hollywood Cowboy in Roma&lt;/em&gt;, 1978.</t>
   </si>
   <si>
     <t>4088.G.3</t>
   </si>
   <si>
-    <t>Etching print by Fritz Scholder  (Luiseño), &lt;em&gt;Galloping Indian After Leigh&lt;/em&gt;, 1978.</t>
+    <t>Etching print by Fritz Scholder (Luiseño), &lt;em&gt;Galloping Indian After Leigh&lt;/em&gt;, 1978.</t>
   </si>
   <si>
     <t>4088.G.4</t>
   </si>
   <si>
-    <t>Etching print by Fritz Scholder, &lt;em&gt;Indian Portrait in Roma&lt;/em&gt;, 1978.</t>
+    <t>Etching print by Fritz Scholder (Luiseño), &lt;em&gt;Indian Portrait in Roma&lt;/em&gt;, 1978.</t>
   </si>
   <si>
     <t>4088.G.5</t>
   </si>
   <si>
-    <t>Etching print by Fritz Scholder, &lt;em&gt;View in Roma No. 1&lt;/em&gt;, 1978.</t>
+    <t>Etching print by Fritz Scholder (Luiseño), &lt;em&gt;View in Roma No. 1&lt;/em&gt;, 1978.</t>
   </si>
   <si>
     <t>4088.G.9</t>
   </si>
   <si>
-    <t>Etching print by Fritz Scholder, &lt;em&gt;Self Portrait in Rome&lt;/em&gt;, 1978.</t>
-  </si>
-  <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
-    <t>PublicDescription</t>
+    <t>Etching print by Fritz Scholder (Luiseño), &lt;em&gt;Self Portrait in Rome&lt;/em&gt;, 1978.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="ARIAL"/>
+      <family val="0"/>
       <charset val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ARIAL"/>
+      <family val="0"/>
+      <charset val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ARIAL"/>
+      <family val="0"/>
+      <charset val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ARIAL"/>
+      <family val="0"/>
+      <charset val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ARIAL"/>
+      <family val="0"/>
+      <charset val="1"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1298,1896 +1320,1658 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="00000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:B194"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.00" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="16384" width="10.00" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="22" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A74" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A76" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A83" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A85" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A88" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A96" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A97" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A99" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A100" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" s="22" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A106" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A107" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A108" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A109" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A111" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A112" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A113" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A114" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A115" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A117" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A118" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A119" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A121" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A122" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A123" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A124" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A125" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A126" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A127" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A129" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A130" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A131" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A132" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A133" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A134" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A135" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A136" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A137" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A138" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A139" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A140" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A141" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A142" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A143" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A144" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A145" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A146" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A147" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A149" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A150" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A151" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A152" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A153" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A154" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A155" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A156" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A157" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A158" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A159" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A160" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A161" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A162" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A163" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A164" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A165" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A166" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A167" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A168" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A169" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A170" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A171" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A172" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A173" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A174" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A175" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A176" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A177" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A178" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A179" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A182" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="183" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A183" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A184" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A185" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A186" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A187" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A188" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A189" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A190" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A191" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A192" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A193" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A194" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>